--- a/data/technology_patents/files/epo_total_unity.xlsx
+++ b/data/technology_patents/files/epo_total_unity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA1E34-EE24-E342-ACFD-76E5302BCA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2796F8EB-7383-C144-A211-2397C1172269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{EB30FE5E-0A88-4C4E-8D5C-56552449D35D}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{EB30FE5E-0A88-4C4E-8D5C-56552449D35D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>BRIC</t>
   </si>
 </sst>
 </file>
@@ -407,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D908CB-F0B5-A84F-9EAA-4FB47506BABC}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,226 +1086,6 @@
         <v>154359</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>1999</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>2000</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>2001</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>2002</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>2003</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>2004</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68">
-        <v>2005</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>2006</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70">
-        <v>2007</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>2008</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72">
-        <v>2009</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>2010</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74">
-        <v>2011</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>2012</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76">
-        <v>2013</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <v>2014</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78">
-        <v>2015</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79">
-        <v>2016</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80">
-        <v>2017</v>
-      </c>
-      <c r="C80" s="1">
-        <v>13593.0074</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="1">
-        <v>14357.7713</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
